--- a/Excel Dataframes, EDA and Predictive Modelling/LaLiga_last10.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/LaLiga_last10.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="last10" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="last10_home" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="last10_away" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,153 +447,1818 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>xG</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>xGC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>GC</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>GD</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Pts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>PPG</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>12.809</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>3.945</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>72</v>
+      </c>
+      <c r="K2" t="n">
+        <v>39</v>
+      </c>
+      <c r="L2" t="n">
+        <v>17</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15.044</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.693</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="H3" t="n">
         <v>16</v>
       </c>
-      <c r="E3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" t="n">
-        <v>23</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.3</v>
+      <c r="I3" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>106</v>
+      </c>
+      <c r="K3" t="n">
+        <v>39</v>
+      </c>
+      <c r="L3" t="n">
+        <v>18</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.515000000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>63</v>
+      </c>
+      <c r="K4" t="n">
+        <v>57</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.456</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.316</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>53</v>
+      </c>
+      <c r="K5" t="n">
+        <v>68</v>
+      </c>
+      <c r="L5" t="n">
+        <v>18</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.765</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.199</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>66</v>
+      </c>
+      <c r="K6" t="n">
+        <v>34</v>
+      </c>
+      <c r="L6" t="n">
+        <v>12</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.819</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.529</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>49</v>
+      </c>
+      <c r="K7" t="n">
+        <v>46</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.797</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.074</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" t="n">
         <v>10</v>
       </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>95</v>
+      </c>
+      <c r="K8" t="n">
+        <v>51</v>
+      </c>
+      <c r="L8" t="n">
+        <v>17</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.353</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.205</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>73</v>
+      </c>
+      <c r="K9" t="n">
+        <v>55</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.041</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.084</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>69</v>
+      </c>
+      <c r="K10" t="n">
+        <v>42</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.916</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.550000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>95</v>
+      </c>
+      <c r="K11" t="n">
+        <v>57</v>
+      </c>
+      <c r="L11" t="n">
+        <v>13</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.976</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8.455</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>32</v>
+      </c>
+      <c r="K12" t="n">
+        <v>52</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>14</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.077</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.415</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>58</v>
+      </c>
+      <c r="K13" t="n">
+        <v>56</v>
+      </c>
+      <c r="L13" t="n">
+        <v>12</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.664000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8.933</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>86</v>
+      </c>
+      <c r="K14" t="n">
+        <v>59</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9</v>
+      </c>
+      <c r="M14" t="n">
+        <v>14</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8.195</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J15" t="n">
+        <v>51</v>
+      </c>
+      <c r="K15" t="n">
+        <v>71</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6.196</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>59</v>
+      </c>
+      <c r="K16" t="n">
+        <v>56</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>8</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10.335</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10.031</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>84</v>
+      </c>
+      <c r="K17" t="n">
+        <v>60</v>
+      </c>
+      <c r="L17" t="n">
+        <v>11</v>
+      </c>
+      <c r="M17" t="n">
+        <v>16</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.622</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7.049</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>50</v>
+      </c>
+      <c r="K18" t="n">
+        <v>58</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" t="n">
+        <v>9</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.039</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6.287</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>60</v>
+      </c>
+      <c r="K19" t="n">
+        <v>53</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7</v>
+      </c>
+      <c r="M19" t="n">
+        <v>9</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.208</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6.391999999999999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>73</v>
+      </c>
+      <c r="K20" t="n">
+        <v>86</v>
+      </c>
+      <c r="L20" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" t="n">
+        <v>7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.621</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>65</v>
+      </c>
+      <c r="K21" t="n">
+        <v>66</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.491000000000001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.819</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>76</v>
+      </c>
+      <c r="K22" t="n">
+        <v>39</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.414</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>62</v>
+      </c>
+      <c r="K23" t="n">
+        <v>45</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.957</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.919</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>53</v>
+      </c>
+      <c r="K24" t="n">
+        <v>39</v>
+      </c>
+      <c r="L24" t="n">
+        <v>9</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>played</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>xG</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>xGC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Pts</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11.528</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.159</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>64</v>
+      </c>
+      <c r="K2" t="n">
+        <v>63</v>
+      </c>
+      <c r="L2" t="n">
+        <v>17</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.344</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>49</v>
+      </c>
+      <c r="K3" t="n">
+        <v>33</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>4.949</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6.061</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47</v>
+      </c>
+      <c r="K4" t="n">
+        <v>59</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>5.663</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>6.478</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>59</v>
+      </c>
+      <c r="K5" t="n">
+        <v>76</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>4.155</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>4.141</v>
       </c>
       <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
-      <c r="F6" t="n">
-        <v>18</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.8</v>
+      <c r="I6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>53</v>
+      </c>
+      <c r="K6" t="n">
+        <v>41</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -602,447 +2268,1041 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>2.937</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>7.13</v>
       </c>
       <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>37</v>
+      </c>
+      <c r="K7" t="n">
+        <v>45</v>
+      </c>
+      <c r="L7" t="n">
         <v>3</v>
       </c>
-      <c r="F7" t="n">
-        <v>17</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.7</v>
+      <c r="M7" t="n">
+        <v>11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>4.568</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>9.885999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>-2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J8" t="n">
+        <v>44</v>
+      </c>
+      <c r="K8" t="n">
+        <v>88</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>8.923</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>12.908</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>-4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J9" t="n">
+        <v>56</v>
+      </c>
+      <c r="K9" t="n">
+        <v>101</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14</v>
+      </c>
+      <c r="M9" t="n">
+        <v>17</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.083</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.291</v>
+      </c>
+      <c r="E10" t="n">
         <v>10</v>
       </c>
-      <c r="C10" t="n">
-        <v>11</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>12</v>
       </c>
-      <c r="E10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>13</v>
-      </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>-2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>85</v>
+      </c>
+      <c r="K10" t="n">
+        <v>78</v>
+      </c>
+      <c r="L10" t="n">
+        <v>12</v>
+      </c>
+      <c r="M10" t="n">
+        <v>15</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>5.512</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>11.153</v>
       </c>
       <c r="E11" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>-4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>49</v>
+      </c>
+      <c r="K11" t="n">
+        <v>81</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>14</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>2.977</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>8.655000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>42</v>
+      </c>
+      <c r="K12" t="n">
+        <v>51</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
         <v>12</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.2</v>
+      <c r="N12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>5.439</v>
       </c>
       <c r="D13" t="n">
+        <v>8.862</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>48</v>
+      </c>
+      <c r="K13" t="n">
+        <v>71</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7</v>
+      </c>
+      <c r="M13" t="n">
         <v>13</v>
       </c>
-      <c r="E13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.2</v>
+      <c r="N13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.047</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.549</v>
+      </c>
+      <c r="E14" t="n">
         <v>10</v>
       </c>
-      <c r="C14" t="n">
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>42</v>
+      </c>
+      <c r="K14" t="n">
+        <v>76</v>
+      </c>
+      <c r="L14" t="n">
         <v>10</v>
       </c>
-      <c r="D14" t="n">
-        <v>10</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="M14" t="n">
+        <v>14</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O14" t="n">
         <v>0</v>
       </c>
-      <c r="F14" t="n">
-        <v>12</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.2</v>
+      <c r="P14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.933</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>72</v>
+      </c>
+      <c r="K15" t="n">
+        <v>70</v>
+      </c>
+      <c r="L15" t="n">
         <v>14</v>
       </c>
-      <c r="D15" t="n">
-        <v>14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>11</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.1</v>
+      <c r="M15" t="n">
+        <v>9</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>3.378</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>3.483</v>
       </c>
       <c r="E16" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>1.1</v>
+        <v>-1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>45</v>
+      </c>
+      <c r="K16" t="n">
+        <v>49</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>5.512</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>14.745</v>
       </c>
       <c r="E17" t="n">
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>1.1</v>
+        <v>-4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>53</v>
+      </c>
+      <c r="K17" t="n">
+        <v>99</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7</v>
+      </c>
+      <c r="M17" t="n">
+        <v>20</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>5.273</v>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>9.07</v>
       </c>
       <c r="E18" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>1.1</v>
+        <v>-3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>58</v>
+      </c>
+      <c r="K18" t="n">
+        <v>75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>12</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Real Valladolid</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>4.55</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>8.157</v>
       </c>
       <c r="E19" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>-3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>43</v>
+      </c>
+      <c r="K19" t="n">
+        <v>91</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.633</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7.959</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J20" t="n">
+        <v>54</v>
+      </c>
+      <c r="K20" t="n">
+        <v>51</v>
+      </c>
+      <c r="L20" t="n">
         <v>10</v>
       </c>
-      <c r="C20" t="n">
-        <v>18</v>
-      </c>
-      <c r="D20" t="n">
-        <v>23</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
+      <c r="M20" t="n">
+        <v>13</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>5.077</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>6.465</v>
       </c>
       <c r="E21" t="n">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7</v>
+        <v>-5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>56</v>
+      </c>
+      <c r="K21" t="n">
+        <v>64</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>4.45</v>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>8.914999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>-5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>50</v>
+      </c>
+      <c r="K22" t="n">
+        <v>65</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>12</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>4.063</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>6.924</v>
       </c>
       <c r="E23" t="n">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>-4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>40</v>
+      </c>
+      <c r="K23" t="n">
+        <v>54</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>11</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.865</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12.599</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" t="n">
         <v>10</v>
       </c>
-      <c r="C24" t="n">
-        <v>4</v>
-      </c>
-      <c r="D24" t="n">
-        <v>14</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-10</v>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
-      </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>-4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>52</v>
+      </c>
+      <c r="K24" t="n">
+        <v>88</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>17</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Dataframes, EDA and Predictive Modelling/LaLiga_last10.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/LaLiga_last10.xlsx
@@ -529,26 +529,26 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>12.809</v>
+        <v>12.919</v>
       </c>
       <c r="D2" t="n">
-        <v>3.945</v>
+        <v>2.371</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>15</v>
@@ -557,16 +557,16 @@
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K2" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="L2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>0.4</v>
@@ -587,84 +587,84 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>15.044</v>
+        <v>10.548</v>
       </c>
       <c r="D3" t="n">
-        <v>4.693</v>
+        <v>4.317</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="K3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L3" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R3" t="n">
         <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>9.515000000000001</v>
+        <v>11.819</v>
       </c>
       <c r="D4" t="n">
-        <v>4.83</v>
+        <v>4.271</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
         <v>13</v>
@@ -673,28 +673,28 @@
         <v>2.6</v>
       </c>
       <c r="J4" t="n">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="K4" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="L4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
         <v>0.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="R4" t="n">
         <v>0.2</v>
@@ -703,59 +703,59 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.456</v>
+        <v>9.515000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>4.316</v>
+        <v>4.83</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -768,10 +768,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.765</v>
+        <v>7.705</v>
       </c>
       <c r="D6" t="n">
-        <v>5.199</v>
+        <v>5.191</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -789,10 +789,10 @@
         <v>2.4</v>
       </c>
       <c r="J6" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="n">
         <v>12</v>
@@ -819,56 +819,56 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>6.819</v>
+        <v>13.797</v>
       </c>
       <c r="D7" t="n">
-        <v>6.529</v>
+        <v>7.074</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="K7" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
         <v>0.6</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="R7" t="n">
         <v>0.2</v>
@@ -877,288 +877,288 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>13.797</v>
+        <v>8.168000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>7.074</v>
+        <v>7.987</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L8" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>9.353</v>
+        <v>10.125</v>
       </c>
       <c r="D9" t="n">
-        <v>6.205</v>
+        <v>4.361000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>85</v>
+      </c>
+      <c r="K9" t="n">
+        <v>51</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12</v>
+      </c>
+      <c r="M9" t="n">
         <v>4</v>
       </c>
-      <c r="G9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>73</v>
-      </c>
-      <c r="K9" t="n">
-        <v>55</v>
-      </c>
-      <c r="L9" t="n">
-        <v>14</v>
-      </c>
-      <c r="M9" t="n">
-        <v>8</v>
-      </c>
       <c r="N9" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="O9" t="n">
         <v>0.2</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7.041</v>
+        <v>8.021000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>4.084</v>
+        <v>6.500999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="J10" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K10" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="L10" t="n">
+        <v>12</v>
+      </c>
+      <c r="M10" t="n">
         <v>7</v>
       </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
       <c r="N10" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="O10" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="P10" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="Q10" t="n">
         <v>0.5</v>
       </c>
       <c r="R10" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>8.916</v>
+        <v>9.353</v>
       </c>
       <c r="D11" t="n">
-        <v>7.550000000000001</v>
+        <v>6.205</v>
       </c>
       <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
       <c r="I11" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="K11" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="O11" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="P11" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>4.976</v>
+        <v>8.916</v>
       </c>
       <c r="D12" t="n">
-        <v>8.455</v>
+        <v>7.550000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
         <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="K12" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="P12" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="R12" t="n">
         <v>0.5</v>
@@ -1167,26 +1167,26 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>7.077</v>
+        <v>9.026</v>
       </c>
       <c r="D13" t="n">
-        <v>5.415</v>
+        <v>8.321</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H13" t="n">
         <v>7</v>
@@ -1195,56 +1195,56 @@
         <v>1.4</v>
       </c>
       <c r="J13" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K13" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="L13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="O13" t="n">
         <v>0.2</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>7.664000000000001</v>
+        <v>5.263</v>
       </c>
       <c r="D14" t="n">
-        <v>8.933</v>
+        <v>6.769</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>7</v>
@@ -1253,132 +1253,132 @@
         <v>1.4</v>
       </c>
       <c r="J14" t="n">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="K14" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
         <v>9</v>
       </c>
-      <c r="M14" t="n">
-        <v>14</v>
-      </c>
       <c r="N14" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>6.09</v>
+        <v>7.386</v>
       </c>
       <c r="D15" t="n">
-        <v>8.195</v>
+        <v>9.827</v>
       </c>
       <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="n">
         <v>9</v>
       </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="J15" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K15" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M15" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N15" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P15" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="R15" t="n">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Real Valladolid</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.859</v>
+        <v>7.664000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>6.196</v>
+        <v>8.933</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G16" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J16" t="n">
+        <v>86</v>
+      </c>
+      <c r="K16" t="n">
         <v>59</v>
       </c>
-      <c r="K16" t="n">
-        <v>56</v>
-      </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M16" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N16" t="n">
         <v>0.4</v>
@@ -1387,35 +1387,35 @@
         <v>0.4</v>
       </c>
       <c r="P16" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>10.335</v>
+        <v>6.331</v>
       </c>
       <c r="D17" t="n">
-        <v>10.031</v>
+        <v>5.836</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
         <v>-1</v>
@@ -1427,89 +1427,89 @@
         <v>1.2</v>
       </c>
       <c r="J17" t="n">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="K17" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L17" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q17" t="n">
         <v>0.2</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>6.622</v>
+        <v>10.335</v>
       </c>
       <c r="D18" t="n">
-        <v>7.049</v>
+        <v>10.031</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H18" t="n">
         <v>6</v>
       </c>
-      <c r="G18" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="K18" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O18" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="P18" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19">
@@ -1577,55 +1577,55 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7.665</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.704</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
         <v>6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8.208</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6.391999999999999</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
       </c>
       <c r="G20" t="n">
         <v>-2</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K20" t="n">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="L20" t="n">
         <v>10</v>
       </c>
       <c r="M20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O20" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="P20" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="R20" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21">
@@ -1635,13 +1635,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>5.621</v>
+        <v>5.306</v>
       </c>
       <c r="D21" t="n">
-        <v>6.32</v>
+        <v>4.806</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -1653,62 +1653,62 @@
         <v>-3</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="J21" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K21" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="L21" t="n">
         <v>8</v>
       </c>
       <c r="M21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O21" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="P21" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>6.491000000000001</v>
+        <v>5.414</v>
       </c>
       <c r="D22" t="n">
-        <v>4.819</v>
+        <v>4.81</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>0.6</v>
       </c>
       <c r="J22" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="K22" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>7</v>
@@ -1747,59 +1747,59 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>5.414</v>
+        <v>5.501</v>
       </c>
       <c r="D23" t="n">
-        <v>4.81</v>
+        <v>3.447</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J23" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K23" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="L23" t="n">
         <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P23" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24">
@@ -1809,55 +1809,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>5.957</v>
+        <v>6.645</v>
       </c>
       <c r="D24" t="n">
-        <v>3.919</v>
+        <v>5.135</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
         <v>-4</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="J24" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K24" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="L24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -1981,16 +1981,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>11.528</v>
+        <v>8.855</v>
       </c>
       <c r="D2" t="n">
-        <v>5.159</v>
+        <v>4.843</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>6</v>
@@ -2002,28 +2002,28 @@
         <v>2.6</v>
       </c>
       <c r="J2" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K2" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="R2" t="n">
         <v>0.2</v>
@@ -2036,281 +2036,281 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.206</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.693</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
         <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.748</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.344</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K3" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="L3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="R3" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.808</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.193999999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>4.949</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.061</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K4" t="n">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N4" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="P4" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.663</v>
+        <v>4.17</v>
       </c>
       <c r="D5" t="n">
-        <v>6.478</v>
+        <v>9.563000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K5" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>4.155</v>
+        <v>2.753</v>
       </c>
       <c r="D6" t="n">
-        <v>4.141</v>
+        <v>6.288</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>34</v>
+      </c>
+      <c r="K6" t="n">
+        <v>37</v>
+      </c>
+      <c r="L6" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>53</v>
-      </c>
-      <c r="K6" t="n">
-        <v>41</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2.937</v>
+        <v>8.500999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>7.13</v>
+        <v>9.683</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J7" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="K7" t="n">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0.4</v>
@@ -2322,200 +2322,200 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>4.568</v>
+        <v>5.427</v>
       </c>
       <c r="D8" t="n">
-        <v>9.885999999999999</v>
+        <v>6.545</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
-      <c r="G8" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
       <c r="I8" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="J8" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="K8" t="n">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
         <v>8</v>
       </c>
-      <c r="M8" t="n">
-        <v>14</v>
-      </c>
       <c r="N8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.33</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>0.5</v>
       </c>
-      <c r="P8" t="n">
-        <v>0.33</v>
-      </c>
       <c r="Q8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>8.923</v>
+        <v>6.047</v>
       </c>
       <c r="D9" t="n">
-        <v>12.908</v>
+        <v>10.549</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K9" t="n">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
         <v>14</v>
       </c>
-      <c r="M9" t="n">
-        <v>17</v>
-      </c>
       <c r="N9" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="O9" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="R9" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.349</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.065</v>
+      </c>
+      <c r="E10" t="n">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
-        <v>10.083</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10.291</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>10</v>
       </c>
-      <c r="F10" t="n">
-        <v>12</v>
-      </c>
       <c r="G10" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="L10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N10" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="O10" t="n">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="P10" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5.512</v>
+        <v>3.378</v>
       </c>
       <c r="D11" t="n">
-        <v>11.153</v>
+        <v>3.483</v>
       </c>
       <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
         <v>4</v>
       </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
       <c r="G11" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="H11" t="n">
         <v>5</v>
@@ -2524,28 +2524,28 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
+        <v>45</v>
+      </c>
+      <c r="K11" t="n">
         <v>49</v>
       </c>
-      <c r="K11" t="n">
-        <v>81</v>
-      </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="R11" t="n">
         <v>0.4</v>
@@ -2554,59 +2554,59 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>2.977</v>
+        <v>9.07</v>
       </c>
       <c r="D12" t="n">
-        <v>8.655000000000001</v>
+        <v>7.933</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="K12" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P12" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="R12" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
@@ -2670,200 +2670,200 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>6.047</v>
+        <v>6.598</v>
       </c>
       <c r="D14" t="n">
-        <v>10.549</v>
+        <v>12.097</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="J14" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="K14" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
         <v>14</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>5</v>
       </c>
       <c r="C15" t="n">
+        <v>5.273</v>
+      </c>
+      <c r="D15" t="n">
         <v>9.07</v>
       </c>
-      <c r="D15" t="n">
-        <v>7.933</v>
-      </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J15" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="K15" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L15" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P15" t="n">
         <v>0.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>3.378</v>
+        <v>5.48</v>
       </c>
       <c r="D16" t="n">
-        <v>3.483</v>
+        <v>6.183</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H16" t="n">
         <v>4</v>
       </c>
-      <c r="G16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J16" t="n">
         <v>45</v>
       </c>
       <c r="K16" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P16" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="Q16" t="n">
         <v>0.2</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Real Valladolid</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>5.512</v>
+        <v>4.55</v>
       </c>
       <c r="D17" t="n">
-        <v>14.745</v>
+        <v>8.157</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
@@ -2872,56 +2872,56 @@
         <v>0.8</v>
       </c>
       <c r="J17" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K17" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L17" t="n">
         <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q17" t="n">
         <v>0.4</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>5.273</v>
+        <v>4.053</v>
       </c>
       <c r="D18" t="n">
-        <v>9.07</v>
+        <v>8.754</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G18" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
@@ -2930,56 +2930,56 @@
         <v>0.8</v>
       </c>
       <c r="J18" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="K18" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N18" t="n">
         <v>0.4</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P18" t="n">
         <v>0.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R18" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>4.55</v>
+        <v>5.512</v>
       </c>
       <c r="D19" t="n">
-        <v>8.157</v>
+        <v>14.745</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G19" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H19" t="n">
         <v>4</v>
@@ -2988,89 +2988,89 @@
         <v>0.8</v>
       </c>
       <c r="J19" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K19" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L19" t="n">
         <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0.4</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>6.633</v>
+        <v>7.246</v>
       </c>
       <c r="D20" t="n">
-        <v>7.959</v>
+        <v>9.478999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>71</v>
+      </c>
+      <c r="K20" t="n">
+        <v>66</v>
+      </c>
+      <c r="L20" t="n">
         <v>8</v>
       </c>
-      <c r="G20" t="n">
-        <v>-4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="J20" t="n">
-        <v>54</v>
-      </c>
-      <c r="K20" t="n">
-        <v>51</v>
-      </c>
-      <c r="L20" t="n">
-        <v>10</v>
-      </c>
       <c r="M20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N20" t="n">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="R20" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21">
@@ -3080,13 +3080,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>5.077</v>
+        <v>3.563</v>
       </c>
       <c r="D21" t="n">
-        <v>6.465</v>
+        <v>6.15</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -3098,37 +3098,37 @@
         <v>-5</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J21" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K21" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -3141,10 +3141,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>4.45</v>
+        <v>4.24</v>
       </c>
       <c r="D22" t="n">
-        <v>8.914999999999999</v>
+        <v>8.776</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -3162,13 +3162,13 @@
         <v>0.4</v>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K22" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>12</v>
@@ -3196,46 +3196,46 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10.008</v>
+      </c>
+      <c r="E23" t="n">
         <v>4</v>
       </c>
-      <c r="C23" t="n">
-        <v>4.063</v>
-      </c>
-      <c r="D23" t="n">
-        <v>6.924</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3</v>
-      </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="J23" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K23" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="L23" t="n">
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N23" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="O23" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -3254,55 +3254,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>4.865</v>
+        <v>5.195</v>
       </c>
       <c r="D24" t="n">
-        <v>12.599</v>
+        <v>14.422</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="J24" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K24" t="n">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="L24" t="n">
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="R24" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
